--- a/funcionarios.xlsx
+++ b/funcionarios.xlsx
@@ -209,13 +209,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -460,6 +460,12 @@
         <v>30050</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
+        <f aca="false">D13/11</f>
+        <v>2731.81818181818</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/funcionarios.xlsx
+++ b/funcionarios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t xml:space="preserve">funcionarios_id</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonka</t>
   </si>
   <si>
     <t xml:space="preserve">Cleverton</t>
@@ -119,8 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -187,8 +194,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,13 +220,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -346,10 +357,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2750</v>
+        <v>3700</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,7 +374,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2550</v>
+        <v>2750</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
@@ -377,13 +388,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,16 +402,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2450</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,16 +419,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,16 +436,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2750</v>
+        <v>2550</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,22 +459,39 @@
         <v>30</v>
       </c>
       <c r="D12" s="0" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>2500</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
-        <f aca="false">SUM(D2:D12)</f>
-        <v>30050</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="n">
-        <f aca="false">D13/11</f>
-        <v>2731.81818181818</v>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1" t="n">
+        <f aca="false">SUM(D2:D13)</f>
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="n">
+        <f aca="false">SUM(D2:D13)/12</f>
+        <v>2812.5</v>
       </c>
     </row>
   </sheetData>
